--- a/inputs/sites.xlsx
+++ b/inputs/sites.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\OneDrive\Desktop\RANDOM\College\Hackies\rooftop_pv_detector\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\OneDrive\Desktop\RANDOM\College\Hackies\rooftop_pv_detector\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -356,7 +356,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -377,10 +377,10 @@
         <v>1001</v>
       </c>
       <c r="B2">
-        <v>12.227581900000001</v>
+        <v>37.422247200000001</v>
       </c>
       <c r="C2">
-        <v>79.069867500000001</v>
+        <v>-122.0851754</v>
       </c>
     </row>
   </sheetData>
